--- a/大白科技账号信息.xlsx
+++ b/大白科技账号信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmmsd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuhaolin\Desktop\dabai-company-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4C445D-18B0-4913-A9DE-D579ABCD5BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88434BC-AB4F-4DEC-8028-AB2B56A8761D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,30 @@
   </si>
   <si>
     <t>https://www.youzan.com/v4/dashboard#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.63.200:8082/zentao/my/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lanhuapp.com/web/#/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://id.docker.com/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DockerHub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,6 +400,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,17 +421,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,27 +714,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="2" customWidth="1"/>
     <col min="8" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,9 +751,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -734,9 +770,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
@@ -753,9 +789,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -772,11 +808,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
@@ -793,9 +829,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -812,9 +848,9 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
@@ -831,9 +867,9 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -850,37 +886,37 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,9 +924,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
@@ -898,40 +934,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,9 +975,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -949,33 +985,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
@@ -983,9 +1019,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
@@ -993,11 +1029,11 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1014,9 +1050,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1033,9 +1069,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1052,9 +1088,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1071,11 +1107,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1090,9 +1126,9 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1106,9 +1142,9 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1122,9 +1158,9 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1135,11 +1171,11 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1152,9 +1188,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1165,186 +1201,186 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="7" t="s">
         <v>4</v>
       </c>
@@ -1355,9 +1391,9 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
@@ -1368,33 +1404,33 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="10" t="s">
         <v>4</v>
       </c>
@@ -1405,9 +1441,9 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="5">
         <v>18676669736</v>
       </c>
@@ -1418,8 +1454,158 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="32">
     <mergeCell ref="A61:B64"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="C62:G62"/>
@@ -1427,15 +1613,8 @@
     <mergeCell ref="A11:B14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A16:B19"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A21:B24"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="A56:B59"/>
@@ -1443,6 +1622,22 @@
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C39:G54"/>
     <mergeCell ref="A39:B54"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="A76:B79"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A66:B69"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="A71:B74"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1452,9 +1647,15 @@
     <hyperlink ref="C22" r:id="rId4" xr:uid="{4C6B1E42-3EC5-4DFA-A591-12F08D14E5D5}"/>
     <hyperlink ref="C57" r:id="rId5" xr:uid="{AE96BB9A-F2C8-4C91-A81E-1F2FDB9C31DE}"/>
     <hyperlink ref="D64" r:id="rId6" display="https://developer.qiniu.com" xr:uid="{B94F8687-6039-4543-912F-612D762B57A3}"/>
-    <hyperlink ref="C62" r:id="rId7" location="/" xr:uid="{C315F2AD-AED1-43D5-AF15-B4B054D49CAA}"/>
+    <hyperlink ref="D69" r:id="rId7" display="https://developer.qiniu.com" xr:uid="{81329D89-1A3B-4EE0-A596-503215ECD843}"/>
+    <hyperlink ref="C67" r:id="rId8" xr:uid="{7CEFD2F0-A5FE-4878-AE31-E73F215B24D2}"/>
+    <hyperlink ref="C62" r:id="rId9" location="/" xr:uid="{C315F2AD-AED1-43D5-AF15-B4B054D49CAA}"/>
+    <hyperlink ref="D74" r:id="rId10" display="https://developer.qiniu.com" xr:uid="{DE6F8889-893D-4D9E-A4FE-39CDF83CA6FF}"/>
+    <hyperlink ref="C72" r:id="rId11" location="/item" xr:uid="{C1251743-C923-469F-B0DD-71944DA5CFAC}"/>
+    <hyperlink ref="C74" r:id="rId12" xr:uid="{BD789DBD-61F0-4118-9C6B-3E5230965356}"/>
+    <hyperlink ref="C77" r:id="rId13" xr:uid="{A5DA1189-34D7-43E7-A8AC-535C97D9E200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/大白科技账号信息.xlsx
+++ b/大白科技账号信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuhaolin\Desktop\dabai-company-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88434BC-AB4F-4DEC-8028-AB2B56A8761D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA3645-90BE-46DC-A05E-5E3B3238ECF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28320" yWindow="480" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>DockerHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dabai@201911</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,9 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,14 +425,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -731,10 +735,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -752,8 +756,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -771,8 +775,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
@@ -790,8 +794,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -809,10 +813,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
@@ -830,8 +834,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -841,16 +845,16 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
+      <c r="F7" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="G7" s="2">
         <v>3307</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
@@ -868,8 +872,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -891,32 +895,32 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +929,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
@@ -936,38 +940,38 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -976,8 +980,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -986,32 +990,32 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="17" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1020,8 +1024,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1030,10 +1034,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1051,8 +1055,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1070,8 +1074,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1089,8 +1093,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1108,10 +1112,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1127,8 +1131,8 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1143,8 +1147,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1159,8 +1163,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1172,10 +1176,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1189,8 +1193,8 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1207,180 +1211,180 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="17" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="7" t="s">
         <v>4</v>
       </c>
@@ -1392,8 +1396,8 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
@@ -1405,32 +1409,32 @@
       <c r="G59" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="17" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="10" t="s">
         <v>4</v>
       </c>
@@ -1442,8 +1446,8 @@
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="5">
         <v>18676669736</v>
       </c>
@@ -1455,32 +1459,32 @@
       <c r="G64" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="16" t="s">
+      <c r="B66" s="14"/>
+      <c r="C66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="17" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="11" t="s">
         <v>4</v>
       </c>
@@ -1492,8 +1496,8 @@
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
@@ -1505,32 +1509,32 @@
       <c r="G69" s="12"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="17" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="11" t="s">
         <v>4</v>
       </c>
@@ -1542,8 +1546,8 @@
       <c r="G73" s="12"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="13" t="s">
         <v>18</v>
       </c>
@@ -1555,32 +1559,32 @@
       <c r="G74" s="12"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="17" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="11" t="s">
         <v>4</v>
       </c>
@@ -1592,12 +1596,12 @@
       <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="14" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E79" s="12"/>
@@ -1606,6 +1610,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A76:B79"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A66:B69"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="A71:B74"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="A21:B24"/>
     <mergeCell ref="A61:B64"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="C62:G62"/>
@@ -1622,40 +1642,16 @@
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C39:G54"/>
     <mergeCell ref="A39:B54"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A16:B19"/>
-    <mergeCell ref="A21:B24"/>
-    <mergeCell ref="A76:B79"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="A66:B69"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="A71:B74"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" display="https://developer.qiniu.com" xr:uid="{81FBAB9E-95EB-433F-AF7C-2B709B05CEA5}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{CC81C350-17B7-423B-8163-44BA0BF3B31A}"/>
-    <hyperlink ref="D19" r:id="rId3" display="https://developer.qiniu.com" xr:uid="{A48D37DE-B79B-45C5-9893-91C62BCDE2CB}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{4C6B1E42-3EC5-4DFA-A591-12F08D14E5D5}"/>
-    <hyperlink ref="C57" r:id="rId5" xr:uid="{AE96BB9A-F2C8-4C91-A81E-1F2FDB9C31DE}"/>
-    <hyperlink ref="D64" r:id="rId6" display="https://developer.qiniu.com" xr:uid="{B94F8687-6039-4543-912F-612D762B57A3}"/>
-    <hyperlink ref="D69" r:id="rId7" display="https://developer.qiniu.com" xr:uid="{81329D89-1A3B-4EE0-A596-503215ECD843}"/>
-    <hyperlink ref="C67" r:id="rId8" xr:uid="{7CEFD2F0-A5FE-4878-AE31-E73F215B24D2}"/>
-    <hyperlink ref="C62" r:id="rId9" location="/" xr:uid="{C315F2AD-AED1-43D5-AF15-B4B054D49CAA}"/>
-    <hyperlink ref="D74" r:id="rId10" display="https://developer.qiniu.com" xr:uid="{DE6F8889-893D-4D9E-A4FE-39CDF83CA6FF}"/>
-    <hyperlink ref="C72" r:id="rId11" location="/item" xr:uid="{C1251743-C923-469F-B0DD-71944DA5CFAC}"/>
-    <hyperlink ref="C74" r:id="rId12" xr:uid="{BD789DBD-61F0-4118-9C6B-3E5230965356}"/>
-    <hyperlink ref="C77" r:id="rId13" xr:uid="{A5DA1189-34D7-43E7-A8AC-535C97D9E200}"/>
+    <hyperlink ref="D19" r:id="rId2" display="https://developer.qiniu.com" xr:uid="{A48D37DE-B79B-45C5-9893-91C62BCDE2CB}"/>
+    <hyperlink ref="D64" r:id="rId3" display="https://developer.qiniu.com" xr:uid="{B94F8687-6039-4543-912F-612D762B57A3}"/>
+    <hyperlink ref="D69" r:id="rId4" display="https://developer.qiniu.com" xr:uid="{81329D89-1A3B-4EE0-A596-503215ECD843}"/>
+    <hyperlink ref="D74" r:id="rId5" display="https://developer.qiniu.com" xr:uid="{DE6F8889-893D-4D9E-A4FE-39CDF83CA6FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/大白科技账号信息.xlsx
+++ b/大白科技账号信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmmsd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dabai-company-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4C445D-18B0-4913-A9DE-D579ABCD5BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154DAF2-0C7D-45D9-9035-27F620F9E2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,13 @@
   <si>
     <t>https://www.youzan.com/v4/dashboard#/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wenkun2010@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dabai@201911130842</t>
   </si>
 </sst>
 </file>
@@ -344,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,6 +383,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,17 +395,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,25 +699,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
     <col min="8" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -716,8 +735,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -735,8 +754,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
@@ -754,8 +773,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -773,10 +792,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
@@ -794,8 +813,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -813,8 +832,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
@@ -832,8 +851,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -855,83 +874,95 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,8 +971,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -950,32 +981,32 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,8 +1015,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
@@ -994,10 +1025,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1015,8 +1046,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1034,8 +1065,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1053,8 +1084,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1072,10 +1103,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1091,8 +1122,8 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1107,8 +1138,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1123,8 +1154,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1136,10 +1167,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1153,8 +1184,8 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1171,180 +1202,180 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="7" t="s">
         <v>4</v>
       </c>
@@ -1356,8 +1387,8 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
@@ -1369,32 +1400,32 @@
       <c r="G59" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="10" t="s">
         <v>4</v>
       </c>
@@ -1406,8 +1437,8 @@
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="5">
         <v>18676669736</v>
       </c>
@@ -1420,6 +1451,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="A21:B24"/>
     <mergeCell ref="A61:B64"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="C62:G62"/>
@@ -1427,15 +1465,8 @@
     <mergeCell ref="A11:B14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A16:B19"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A21:B24"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="A56:B59"/>
@@ -1447,14 +1478,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" display="https://developer.qiniu.com" xr:uid="{81FBAB9E-95EB-433F-AF7C-2B709B05CEA5}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{CC81C350-17B7-423B-8163-44BA0BF3B31A}"/>
-    <hyperlink ref="D19" r:id="rId3" display="https://developer.qiniu.com" xr:uid="{A48D37DE-B79B-45C5-9893-91C62BCDE2CB}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{4C6B1E42-3EC5-4DFA-A591-12F08D14E5D5}"/>
-    <hyperlink ref="C57" r:id="rId5" xr:uid="{AE96BB9A-F2C8-4C91-A81E-1F2FDB9C31DE}"/>
-    <hyperlink ref="D64" r:id="rId6" display="https://developer.qiniu.com" xr:uid="{B94F8687-6039-4543-912F-612D762B57A3}"/>
-    <hyperlink ref="C62" r:id="rId7" location="/" xr:uid="{C315F2AD-AED1-43D5-AF15-B4B054D49CAA}"/>
+    <hyperlink ref="D19" r:id="rId2" display="https://developer.qiniu.com" xr:uid="{A48D37DE-B79B-45C5-9893-91C62BCDE2CB}"/>
+    <hyperlink ref="D64" r:id="rId3" display="https://developer.qiniu.com" xr:uid="{B94F8687-6039-4543-912F-612D762B57A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/大白科技账号信息.xlsx
+++ b/大白科技账号信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuhaolin\Desktop\dabai-company-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA3645-90BE-46DC-A05E-5E3B3238ECF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BB15F-B469-4427-B03B-66C8A8F8C149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="480" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>Dabai@201911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dabai#20191209</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,23 +423,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -720,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -910,13 +914,13 @@
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -940,7 +944,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -961,13 +965,13 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
@@ -1005,13 +1009,13 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
@@ -1034,10 +1038,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1055,8 +1059,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1074,8 +1078,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1093,8 +1097,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1171,6 +1175,9 @@
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E34" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="2">
         <v>6379</v>
       </c>
@@ -1215,148 +1222,148 @@
         <v>47</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -1374,13 +1381,13 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
@@ -1424,13 +1431,13 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
@@ -1474,13 +1481,13 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
@@ -1524,13 +1531,13 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
@@ -1574,13 +1581,13 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>

--- a/大白科技账号信息.xlsx
+++ b/大白科技账号信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuhaolin\Desktop\dabai-company-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dabai-company-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BB15F-B469-4427-B03B-66C8A8F8C149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F0F91-E0ED-4CB9-AF2D-B312D8417853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rancher容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有赞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +278,24 @@
   </si>
   <si>
     <t>Dabai#20191209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rancher容器（微服务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://39.108.188.232:8090/env/1a75/apps/stacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiaomu</t>
+  </si>
+  <si>
+    <t>Qiaomu@2020</t>
+  </si>
+  <si>
+    <t>Rancher容器(研发单体项目)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +368,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -376,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,6 +437,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,6 +452,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,8 +467,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,27 +751,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
     <col min="8" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -759,9 +790,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,9 +809,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
@@ -797,9 +828,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -816,11 +847,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
@@ -837,9 +868,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -850,15 +881,15 @@
         <v>7</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>3307</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
@@ -875,9 +906,9 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,37 +925,37 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="19" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -932,9 +963,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
@@ -942,40 +973,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -983,9 +1014,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -993,33 +1024,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1027,9 +1058,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1037,11 +1068,11 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1058,9 +1089,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1077,9 +1108,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1096,9 +1127,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1115,11 +1146,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1134,9 +1165,9 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1150,9 +1181,9 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1166,9 +1197,9 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1176,17 +1207,17 @@
         <v>13</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2">
         <v>6379</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1199,9 +1230,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1212,186 +1243,186 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="16" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="7" t="s">
         <v>4</v>
       </c>
@@ -1402,9 +1433,9 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
@@ -1415,33 +1446,33 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="10" t="s">
         <v>4</v>
       </c>
@@ -1452,46 +1483,46 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="5">
         <v>18676669736</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="11" t="s">
         <v>4</v>
       </c>
@@ -1502,9 +1533,9 @@
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
@@ -1515,33 +1546,33 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="11" t="s">
         <v>4</v>
       </c>
@@ -1552,9 +1583,9 @@
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="13" t="s">
         <v>18</v>
       </c>
@@ -1565,33 +1596,33 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="11" t="s">
         <v>4</v>
       </c>
@@ -1602,9 +1633,9 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="13" t="s">
         <v>19</v>
       </c>
@@ -1615,24 +1646,61 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
     </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A76:B79"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="A66:B69"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="A71:B74"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A16:B19"/>
-    <mergeCell ref="A21:B24"/>
+  <mergeCells count="35">
+    <mergeCell ref="A81:B84"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
     <mergeCell ref="A61:B64"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="C62:G62"/>
@@ -1649,6 +1717,22 @@
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C39:G54"/>
     <mergeCell ref="A39:B54"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="A76:B79"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A66:B69"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="A71:B74"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/大白科技账号信息.xlsx
+++ b/大白科技账号信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dabai-company-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F0F91-E0ED-4CB9-AF2D-B312D8417853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667993ED-530C-4EA3-A7CA-6843E8F32361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
   <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,20 @@
   <si>
     <t>Rancher容器(研发单体项目)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jiguang.cn/accounts/login/form?nextUrl=%2Fstat2%2F%23%2Fapp%2F51afc6431df2ed5d856d1fc1%2Foverview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcx@dabaikeji.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dabai123456 </t>
   </si>
 </sst>
 </file>
@@ -396,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -443,6 +457,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,9 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,8 +487,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,17 +783,17 @@
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
     <col min="8" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -791,8 +811,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -810,8 +830,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,8 +849,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -848,10 +868,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
@@ -869,8 +889,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -888,8 +908,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
@@ -907,8 +927,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -930,32 +950,32 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -964,8 +984,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
@@ -975,38 +995,38 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1015,8 +1035,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1025,32 +1045,32 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1079,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1069,10 +1089,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1090,8 +1110,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1109,8 +1129,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1128,8 +1148,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1147,10 +1167,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1166,8 +1186,8 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1182,8 +1202,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1198,8 +1218,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1214,10 +1234,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1231,8 +1251,8 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1249,180 +1269,180 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="18" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="7" t="s">
         <v>4</v>
       </c>
@@ -1434,8 +1454,8 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
@@ -1447,32 +1467,32 @@
       <c r="G59" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="18" t="s">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="10" t="s">
         <v>4</v>
       </c>
@@ -1484,8 +1504,8 @@
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="5">
         <v>18676669736</v>
       </c>
@@ -1497,32 +1517,32 @@
       <c r="G64" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="18" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="11" t="s">
         <v>4</v>
       </c>
@@ -1534,8 +1554,8 @@
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
@@ -1547,32 +1567,32 @@
       <c r="G69" s="12"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="18" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="11" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1604,8 @@
       <c r="G73" s="12"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="13" t="s">
         <v>18</v>
       </c>
@@ -1597,32 +1617,32 @@
       <c r="G74" s="12"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17" t="s">
+      <c r="B76" s="19"/>
+      <c r="C76" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="18" t="s">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="11" t="s">
         <v>4</v>
       </c>
@@ -1634,8 +1654,8 @@
       <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="13" t="s">
         <v>19</v>
       </c>
@@ -1647,32 +1667,32 @@
       <c r="G79" s="12"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17" t="s">
+      <c r="B81" s="19"/>
+      <c r="C81" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="18" t="s">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="14" t="s">
         <v>4</v>
       </c>
@@ -1684,31 +1704,80 @@
       <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="24" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
     </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A81:B84"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="A61:B64"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="A11:B14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:G16"/>
+  <mergeCells count="38">
+    <mergeCell ref="A86:B89"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="A21:B24"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
@@ -1717,13 +1786,17 @@
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="C39:G54"/>
     <mergeCell ref="A39:B54"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A16:B19"/>
-    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A11:B14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="A81:B84"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="A61:B64"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
     <mergeCell ref="A76:B79"/>
     <mergeCell ref="C76:G76"/>
     <mergeCell ref="C77:G77"/>
